--- a/input/mdata/2013-03-22.xlsx
+++ b/input/mdata/2013-03-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>P_core1</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>N_gx</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>2001-01-31</t>
@@ -969,6 +972,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1131,7 @@
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>69.28700000000001</v>
@@ -1226,7 +1232,7 @@
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>69.422</v>
@@ -1327,7 +1333,7 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>69.898</v>
@@ -1443,7 +1449,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>70.101</v>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>70.304</v>
@@ -1645,7 +1651,7 @@
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>70.373</v>
@@ -1761,7 +1767,7 @@
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>70.373</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>70.57599999999999</v>
@@ -1963,7 +1969,7 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>70.712</v>
@@ -2079,7 +2085,7 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>70.779</v>
@@ -2180,7 +2186,7 @@
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>70.84699999999999</v>
@@ -2281,7 +2287,7 @@
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>71.119</v>
@@ -2397,7 +2403,7 @@
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>71.32299999999999</v>
@@ -2507,7 +2513,7 @@
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>71.526</v>
@@ -2617,7 +2623,7 @@
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>72.001</v>
@@ -2742,7 +2748,7 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>72.205</v>
@@ -2852,7 +2858,7 @@
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>72.408</v>
@@ -2962,7 +2968,7 @@
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>72.408</v>
@@ -3087,7 +3093,7 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>72.47499999999999</v>
@@ -3197,7 +3203,7 @@
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>72.544</v>
@@ -3307,7 +3313,7 @@
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>72.748</v>
@@ -3432,7 +3438,7 @@
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>72.883</v>
@@ -3542,7 +3548,7 @@
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>73.01900000000001</v>
@@ -3652,7 +3658,7 @@
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>73.29000000000001</v>
@@ -3777,7 +3783,7 @@
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>73.562</v>
@@ -3914,7 +3920,7 @@
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>73.697</v>
@@ -4051,7 +4057,7 @@
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>74.444</v>
@@ -4203,7 +4209,7 @@
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>74.512</v>
@@ -4340,7 +4346,7 @@
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>74.648</v>
@@ -4477,7 +4483,7 @@
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>74.783</v>
@@ -4629,7 +4635,7 @@
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32">
         <v>74.715</v>
@@ -4766,7 +4772,7 @@
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>74.851</v>
@@ -4903,7 +4909,7 @@
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>74.988</v>
@@ -5055,7 +5061,7 @@
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>74.919</v>
@@ -5192,7 +5198,7 @@
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>74.988</v>
@@ -5329,7 +5335,7 @@
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>75.32599999999999</v>
@@ -5481,7 +5487,7 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>75.598</v>
@@ -5618,7 +5624,7 @@
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>75.66500000000001</v>
@@ -5755,7 +5761,7 @@
     </row>
     <row r="40" spans="1:52">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>76.48</v>
@@ -5907,7 +5913,7 @@
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>76.548</v>
@@ -6044,7 +6050,7 @@
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>76.684</v>
@@ -6181,7 +6187,7 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43">
         <v>76.81999999999999</v>
@@ -6333,7 +6339,7 @@
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>77.023</v>
@@ -6470,7 +6476,7 @@
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>77.226</v>
@@ -6607,7 +6613,7 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>77.36199999999999</v>
@@ -6759,7 +6765,7 @@
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>77.431</v>
@@ -6896,7 +6902,7 @@
     </row>
     <row r="48" spans="1:52">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48">
         <v>77.295</v>
@@ -7033,7 +7039,7 @@
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>77.498</v>
@@ -7185,7 +7191,7 @@
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>78.056</v>
@@ -7322,7 +7328,7 @@
     </row>
     <row r="51" spans="1:52">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>78.21299999999999</v>
@@ -7459,7 +7465,7 @@
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>78.607</v>
@@ -7611,7 +7617,7 @@
     </row>
     <row r="53" spans="1:52">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>78.607</v>
@@ -7748,7 +7754,7 @@
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>78.685</v>
@@ -7885,7 +7891,7 @@
     </row>
     <row r="55" spans="1:52">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
         <v>78.607</v>
@@ -8037,7 +8043,7 @@
     </row>
     <row r="56" spans="1:52">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
         <v>78.607</v>
@@ -8174,7 +8180,7 @@
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
         <v>78.685</v>
@@ -8311,7 +8317,7 @@
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
         <v>78.76300000000001</v>
@@ -8463,7 +8469,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
         <v>78.76300000000001</v>
@@ -8600,7 +8606,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
         <v>78.76300000000001</v>
@@ -8737,7 +8743,7 @@
     </row>
     <row r="61" spans="1:52">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>78.92100000000001</v>
@@ -8889,7 +8895,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
         <v>79.078</v>
@@ -9026,7 +9032,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
         <v>79.235</v>
@@ -9163,7 +9169,7 @@
     </row>
     <row r="64" spans="1:52">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <v>79.70699999999999</v>
@@ -9315,7 +9321,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
         <v>79.785</v>
@@ -9452,7 +9458,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66">
         <v>80.09999999999999</v>
@@ -9589,7 +9595,7 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
         <v>80.09999999999999</v>
@@ -9741,7 +9747,7 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
         <v>80.25700000000001</v>
@@ -9878,7 +9884,7 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69">
         <v>80.336</v>
@@ -10015,7 +10021,7 @@
     </row>
     <row r="70" spans="1:52">
       <c r="A70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B70">
         <v>80.336</v>
@@ -10167,7 +10173,7 @@
     </row>
     <row r="71" spans="1:52">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71">
         <v>80.336</v>
@@ -10304,7 +10310,7 @@
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>80.414</v>
@@ -10441,7 +10447,7 @@
     </row>
     <row r="73" spans="1:52">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>80.572</v>
@@ -10593,7 +10599,7 @@
     </row>
     <row r="74" spans="1:52">
       <c r="A74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B74">
         <v>80.72799999999999</v>
@@ -10730,7 +10736,7 @@
     </row>
     <row r="75" spans="1:52">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B75">
         <v>81.04300000000001</v>
@@ -10867,7 +10873,7 @@
     </row>
     <row r="76" spans="1:52">
       <c r="A76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B76">
         <v>81.593</v>
@@ -11019,7 +11025,7 @@
     </row>
     <row r="77" spans="1:52">
       <c r="A77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B77">
         <v>81.83</v>
@@ -11156,7 +11162,7 @@
     </row>
     <row r="78" spans="1:52">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B78">
         <v>81.83</v>
@@ -11293,7 +11299,7 @@
     </row>
     <row r="79" spans="1:52">
       <c r="A79" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B79">
         <v>81.908</v>
@@ -11445,7 +11451,7 @@
     </row>
     <row r="80" spans="1:52">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B80">
         <v>82.065</v>
@@ -11582,7 +11588,7 @@
     </row>
     <row r="81" spans="1:52">
       <c r="A81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B81">
         <v>82.14400000000001</v>
@@ -11719,7 +11725,7 @@
     </row>
     <row r="82" spans="1:52">
       <c r="A82" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B82">
         <v>82.22199999999999</v>
@@ -11871,7 +11877,7 @@
     </row>
     <row r="83" spans="1:52">
       <c r="A83" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83">
         <v>82.301</v>
@@ -12008,7 +12014,7 @@
     </row>
     <row r="84" spans="1:52">
       <c r="A84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B84">
         <v>82.379</v>
@@ -12145,7 +12151,7 @@
     </row>
     <row r="85" spans="1:52">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B85">
         <v>82.53700000000001</v>
@@ -12297,7 +12303,7 @@
     </row>
     <row r="86" spans="1:52">
       <c r="A86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B86">
         <v>83.008</v>
@@ -12434,7 +12440,7 @@
     </row>
     <row r="87" spans="1:52">
       <c r="A87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B87">
         <v>83.322</v>
@@ -12571,7 +12577,7 @@
     </row>
     <row r="88" spans="1:52">
       <c r="A88" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B88">
         <v>84.26600000000001</v>
@@ -12723,7 +12729,7 @@
     </row>
     <row r="89" spans="1:52">
       <c r="A89" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B89">
         <v>84.65900000000001</v>
@@ -12860,7 +12866,7 @@
     </row>
     <row r="90" spans="1:52">
       <c r="A90" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B90">
         <v>85.05200000000001</v>
@@ -12997,7 +13003,7 @@
     </row>
     <row r="91" spans="1:52">
       <c r="A91" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B91">
         <v>85.44499999999999</v>
@@ -13149,7 +13155,7 @@
     </row>
     <row r="92" spans="1:52">
       <c r="A92" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92">
         <v>85.83799999999999</v>
@@ -13292,7 +13298,7 @@
     </row>
     <row r="93" spans="1:52">
       <c r="A93" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B93">
         <v>85.996</v>
@@ -13435,7 +13441,7 @@
     </row>
     <row r="94" spans="1:52">
       <c r="A94" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B94">
         <v>86.38800000000001</v>
@@ -13593,7 +13599,7 @@
     </row>
     <row r="95" spans="1:52">
       <c r="A95" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B95">
         <v>86.545</v>
@@ -13736,7 +13742,7 @@
     </row>
     <row r="96" spans="1:52">
       <c r="A96" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B96">
         <v>86.78100000000001</v>
@@ -13879,7 +13885,7 @@
     </row>
     <row r="97" spans="1:52">
       <c r="A97" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B97">
         <v>87.17400000000001</v>
@@ -14037,7 +14043,7 @@
     </row>
     <row r="98" spans="1:52">
       <c r="A98" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B98">
         <v>87.33199999999999</v>
@@ -14180,7 +14186,7 @@
     </row>
     <row r="99" spans="1:52">
       <c r="A99" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B99">
         <v>87.646</v>
@@ -14323,7 +14329,7 @@
     </row>
     <row r="100" spans="1:52">
       <c r="A100" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B100">
         <v>88.039</v>
@@ -14481,7 +14487,7 @@
     </row>
     <row r="101" spans="1:52">
       <c r="A101" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B101">
         <v>88.196</v>
@@ -14624,7 +14630,7 @@
     </row>
     <row r="102" spans="1:52">
       <c r="A102" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B102">
         <v>88.354</v>
@@ -14767,7 +14773,7 @@
     </row>
     <row r="103" spans="1:52">
       <c r="A103" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B103">
         <v>88.432</v>
@@ -14925,7 +14931,7 @@
     </row>
     <row r="104" spans="1:52">
       <c r="A104" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B104">
         <v>88.59</v>
@@ -15068,7 +15074,7 @@
     </row>
     <row r="105" spans="1:52">
       <c r="A105" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B105">
         <v>88.66800000000001</v>
@@ -15211,7 +15217,7 @@
     </row>
     <row r="106" spans="1:52">
       <c r="A106" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B106">
         <v>88.746</v>
@@ -15369,7 +15375,7 @@
     </row>
     <row r="107" spans="1:52">
       <c r="A107" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B107">
         <v>88.825</v>
@@ -15512,7 +15518,7 @@
     </row>
     <row r="108" spans="1:52">
       <c r="A108" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B108">
         <v>88.982</v>
@@ -15655,7 +15661,7 @@
     </row>
     <row r="109" spans="1:52">
       <c r="A109" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B109">
         <v>89.06100000000001</v>
@@ -15813,7 +15819,7 @@
     </row>
     <row r="110" spans="1:52">
       <c r="A110" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B110">
         <v>89.348</v>
@@ -15956,7 +15962,7 @@
     </row>
     <row r="111" spans="1:52">
       <c r="A111" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B111">
         <v>89.52800000000001</v>
@@ -16099,7 +16105,7 @@
     </row>
     <row r="112" spans="1:52">
       <c r="A112" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B112">
         <v>89.438</v>
@@ -16257,7 +16263,7 @@
     </row>
     <row r="113" spans="1:52">
       <c r="A113" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B113">
         <v>89.61799999999999</v>
@@ -16400,7 +16406,7 @@
     </row>
     <row r="114" spans="1:52">
       <c r="A114" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B114">
         <v>89.798</v>
@@ -16543,7 +16549,7 @@
     </row>
     <row r="115" spans="1:52">
       <c r="A115" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B115">
         <v>89.88800000000001</v>
@@ -16701,7 +16707,7 @@
     </row>
     <row r="116" spans="1:52">
       <c r="A116" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B116">
         <v>90.068</v>
@@ -16844,7 +16850,7 @@
     </row>
     <row r="117" spans="1:52">
       <c r="A117" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B117">
         <v>90.248</v>
@@ -16987,7 +16993,7 @@
     </row>
     <row r="118" spans="1:52">
       <c r="A118" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B118">
         <v>90.33799999999999</v>
@@ -17145,7 +17151,7 @@
     </row>
     <row r="119" spans="1:52">
       <c r="A119" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B119">
         <v>90.33799999999999</v>
@@ -17288,7 +17294,7 @@
     </row>
     <row r="120" spans="1:52">
       <c r="A120" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B120">
         <v>90.33799999999999</v>
@@ -17431,7 +17437,7 @@
     </row>
     <row r="121" spans="1:52">
       <c r="A121" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B121">
         <v>90.608</v>
@@ -17589,7 +17595,7 @@
     </row>
     <row r="122" spans="1:52">
       <c r="A122" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B122">
         <v>91.238</v>
@@ -17732,7 +17738,7 @@
     </row>
     <row r="123" spans="1:52">
       <c r="A123" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B123">
         <v>91.867</v>
@@ -17875,7 +17881,7 @@
     </row>
     <row r="124" spans="1:52">
       <c r="A124" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B124">
         <v>92.137</v>
@@ -18033,7 +18039,7 @@
     </row>
     <row r="125" spans="1:52">
       <c r="A125" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B125">
         <v>92.31699999999999</v>
@@ -18176,7 +18182,7 @@
     </row>
     <row r="126" spans="1:52">
       <c r="A126" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B126">
         <v>92.67700000000001</v>
@@ -18319,7 +18325,7 @@
     </row>
     <row r="127" spans="1:52">
       <c r="A127" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B127">
         <v>93.03700000000001</v>
@@ -18477,7 +18483,7 @@
     </row>
     <row r="128" spans="1:52">
       <c r="A128" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B128">
         <v>93.307</v>
@@ -18620,7 +18626,7 @@
     </row>
     <row r="129" spans="1:52">
       <c r="A129" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B129">
         <v>93.39700000000001</v>
@@ -18763,7 +18769,7 @@
     </row>
     <row r="130" spans="1:52">
       <c r="A130" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B130">
         <v>93.307</v>
@@ -18921,7 +18927,7 @@
     </row>
     <row r="131" spans="1:52">
       <c r="A131" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B131">
         <v>93.217</v>
@@ -19064,7 +19070,7 @@
     </row>
     <row r="132" spans="1:52">
       <c r="A132" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B132">
         <v>93.48699999999999</v>
@@ -19207,7 +19213,7 @@
     </row>
     <row r="133" spans="1:52">
       <c r="A133" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B133">
         <v>93.84699999999999</v>
@@ -19365,7 +19371,7 @@
     </row>
     <row r="134" spans="1:52">
       <c r="A134" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B134">
         <v>94.036</v>
@@ -19508,7 +19514,7 @@
     </row>
     <row r="135" spans="1:52">
       <c r="A135" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B135">
         <v>94.15300000000001</v>
@@ -19651,7 +19657,7 @@
     </row>
     <row r="136" spans="1:52">
       <c r="A136" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B136">
         <v>93.919</v>
@@ -19809,7 +19815,7 @@
     </row>
     <row r="137" spans="1:52">
       <c r="A137" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B137">
         <v>93.928</v>
@@ -19952,7 +19958,7 @@
     </row>
     <row r="138" spans="1:52">
       <c r="A138" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B138">
         <v>94.15300000000001</v>
@@ -20095,7 +20101,7 @@
     </row>
     <row r="139" spans="1:52">
       <c r="A139" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B139">
         <v>94.405</v>
@@ -20253,7 +20259,7 @@
     </row>
     <row r="140" spans="1:52">
       <c r="A140" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B140">
         <v>94.396</v>
@@ -20396,7 +20402,7 @@
     </row>
     <row r="141" spans="1:52">
       <c r="A141" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B141">
         <v>94.54900000000001</v>
@@ -20539,7 +20545,7 @@
     </row>
     <row r="142" spans="1:52">
       <c r="A142" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B142">
         <v>94.702</v>
@@ -20697,7 +20703,7 @@
     </row>
     <row r="143" spans="1:52">
       <c r="A143" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B143">
         <v>94.675</v>
@@ -20840,7 +20846,7 @@
     </row>
     <row r="144" spans="1:52">
       <c r="A144" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B144">
         <v>94.747</v>
@@ -20983,7 +20989,7 @@
     </row>
     <row r="145" spans="1:52">
       <c r="A145" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B145">
         <v>94.90000000000001</v>
@@ -21141,7 +21147,7 @@
     </row>
     <row r="146" spans="1:52">
       <c r="A146" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B146">
         <v>95.27800000000001</v>
@@ -21284,7 +21290,7 @@
     </row>
     <row r="147" spans="1:52">
       <c r="A147" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B147">
         <v>95.512</v>

--- a/input/mdata/2013-03-22.xlsx
+++ b/input/mdata/2013-03-22.xlsx
@@ -1155,7 +1155,7 @@
         <v>77.7208</v>
       </c>
       <c r="T2">
-        <v>56.3</v>
+        <v>57.94748073503263</v>
       </c>
       <c r="U2">
         <v>4.4</v>
@@ -1256,7 +1256,7 @@
         <v>78.2276</v>
       </c>
       <c r="T3">
-        <v>56.1</v>
+        <v>57.76319502074691</v>
       </c>
       <c r="U3">
         <v>4.7</v>
@@ -1357,7 +1357,7 @@
         <v>81.04949999999999</v>
       </c>
       <c r="T4">
-        <v>57.4</v>
+        <v>58.12319502074691</v>
       </c>
       <c r="U4">
         <v>4.6</v>
@@ -1473,7 +1473,7 @@
         <v>85.7067</v>
       </c>
       <c r="T5">
-        <v>59.4</v>
+        <v>59.16819502074691</v>
       </c>
       <c r="U5">
         <v>4.1</v>
@@ -1574,7 +1574,7 @@
         <v>86.45869999999999</v>
       </c>
       <c r="T6">
-        <v>60.1</v>
+        <v>59.31319502074691</v>
       </c>
       <c r="U6">
         <v>3.9</v>
@@ -1675,7 +1675,7 @@
         <v>80.9592</v>
       </c>
       <c r="T7">
-        <v>60.1</v>
+        <v>59.22319502074691</v>
       </c>
       <c r="U7">
         <v>3.8</v>
@@ -1791,7 +1791,7 @@
         <v>80.4614</v>
       </c>
       <c r="T8">
-        <v>60.1</v>
+        <v>59.30319502074691</v>
       </c>
       <c r="U8">
         <v>3.8</v>
@@ -1892,7 +1892,7 @@
         <v>89.5264</v>
       </c>
       <c r="T9">
-        <v>59.4</v>
+        <v>59.17319502074691</v>
       </c>
       <c r="U9">
         <v>3.8</v>
@@ -1993,7 +1993,7 @@
         <v>95.1823</v>
       </c>
       <c r="T10">
-        <v>60.1</v>
+        <v>59.59319502074691</v>
       </c>
       <c r="U10">
         <v>3.7</v>
@@ -2109,7 +2109,7 @@
         <v>89.5399</v>
       </c>
       <c r="T11">
-        <v>60.3</v>
+        <v>59.6081950207469</v>
       </c>
       <c r="U11">
         <v>3.6</v>
@@ -2210,7 +2210,7 @@
         <v>89.86490000000001</v>
       </c>
       <c r="T12">
-        <v>60.2</v>
+        <v>59.60319502074692</v>
       </c>
       <c r="U12">
         <v>3.7</v>
@@ -2311,7 +2311,7 @@
         <v>87.1947</v>
       </c>
       <c r="T13">
-        <v>58.9</v>
+        <v>59.49819502074691</v>
       </c>
       <c r="U13">
         <v>3.6</v>
@@ -2427,16 +2427,16 @@
         <v>89.2718</v>
       </c>
       <c r="Q14">
-        <v>42160</v>
+        <v>59328.44890829694</v>
       </c>
       <c r="R14">
-        <v>0.62</v>
+        <v>0.7441304347826087</v>
       </c>
       <c r="S14">
-        <v>12.8</v>
+        <v>19.86521739130436</v>
       </c>
       <c r="T14">
-        <v>58.1</v>
+        <v>59.74748073503263</v>
       </c>
       <c r="U14">
         <v>3.6</v>
@@ -2537,16 +2537,16 @@
         <v>97.79000000000001</v>
       </c>
       <c r="Q15">
-        <v>37161</v>
+        <v>51976.93311882326</v>
       </c>
       <c r="R15">
-        <v>0.74</v>
+        <v>0.7441304347826088</v>
       </c>
       <c r="S15">
-        <v>17.3</v>
+        <v>18.92521739130436</v>
       </c>
       <c r="T15">
-        <v>58.2</v>
+        <v>59.86319502074691</v>
       </c>
       <c r="U15">
         <v>3.5</v>
@@ -2647,16 +2647,16 @@
         <v>87.8753</v>
       </c>
       <c r="Q16">
-        <v>61997</v>
+        <v>69824.51206619167</v>
       </c>
       <c r="R16">
-        <v>0.79</v>
+        <v>0.7774462242562931</v>
       </c>
       <c r="S16">
-        <v>21.3</v>
+        <v>18.607585812357</v>
       </c>
       <c r="T16">
-        <v>59.1</v>
+        <v>59.82319502074691</v>
       </c>
       <c r="U16">
         <v>3.4</v>
@@ -2772,16 +2772,16 @@
         <v>88.27379999999999</v>
       </c>
       <c r="Q17">
-        <v>57904</v>
+        <v>66634.40680303378</v>
       </c>
       <c r="R17">
-        <v>0.96</v>
+        <v>0.9406041189931351</v>
       </c>
       <c r="S17">
-        <v>27.6</v>
+        <v>24.147585812357</v>
       </c>
       <c r="T17">
-        <v>60.5</v>
+        <v>60.26819502074692</v>
       </c>
       <c r="U17">
         <v>3.4</v>
@@ -2882,16 +2882,16 @@
         <v>87.2332</v>
       </c>
       <c r="Q18">
-        <v>56988</v>
+        <v>63304.24890829695</v>
       </c>
       <c r="R18">
-        <v>0.96</v>
+        <v>0.9121830663615562</v>
       </c>
       <c r="S18">
-        <v>27.4</v>
+        <v>24.86969107551489</v>
       </c>
       <c r="T18">
-        <v>60.9</v>
+        <v>60.11319502074691</v>
       </c>
       <c r="U18">
         <v>3.3</v>
@@ -2992,16 +2992,16 @@
         <v>90.4872</v>
       </c>
       <c r="Q19">
-        <v>55337</v>
+        <v>51397.61732934956</v>
       </c>
       <c r="R19">
-        <v>0.72</v>
+        <v>0.6969199084668195</v>
       </c>
       <c r="S19">
-        <v>23.2</v>
+        <v>22.48021739130437</v>
       </c>
       <c r="T19">
-        <v>61</v>
+        <v>60.12319502074691</v>
       </c>
       <c r="U19">
         <v>3.1</v>
@@ -3117,16 +3117,16 @@
         <v>93.2032</v>
       </c>
       <c r="Q20">
-        <v>50400</v>
+        <v>52076.30153987589</v>
       </c>
       <c r="R20">
-        <v>0.64</v>
+        <v>0.6869199084668194</v>
       </c>
       <c r="S20">
-        <v>22</v>
+        <v>22.44337528604121</v>
       </c>
       <c r="T20">
-        <v>61</v>
+        <v>60.20319502074691</v>
       </c>
       <c r="U20">
         <v>3.1</v>
@@ -3227,16 +3227,16 @@
         <v>87.0822</v>
       </c>
       <c r="Q21">
-        <v>40385</v>
+        <v>49052.19627671799</v>
       </c>
       <c r="R21">
-        <v>0.75</v>
+        <v>0.6995514874141878</v>
       </c>
       <c r="S21">
-        <v>21.5</v>
+        <v>21.57863844393594</v>
       </c>
       <c r="T21">
-        <v>60.1</v>
+        <v>59.87319502074691</v>
       </c>
       <c r="U21">
         <v>3.3</v>
@@ -3337,16 +3337,16 @@
         <v>91.0702</v>
       </c>
       <c r="Q22">
-        <v>47804</v>
+        <v>51916.66996092852</v>
       </c>
       <c r="R22">
-        <v>0.72</v>
+        <v>0.7000778032036615</v>
       </c>
       <c r="S22">
-        <v>23.7</v>
+        <v>22.51179633867278</v>
       </c>
       <c r="T22">
-        <v>60.8</v>
+        <v>60.29319502074691</v>
       </c>
       <c r="U22">
         <v>3</v>
@@ -3462,16 +3462,16 @@
         <v>91.3916</v>
       </c>
       <c r="Q23">
-        <v>56907</v>
+        <v>58283.03838198115</v>
       </c>
       <c r="R23">
-        <v>0.8</v>
+        <v>0.7637620137299772</v>
       </c>
       <c r="S23">
-        <v>21.8</v>
+        <v>22.16442791762015</v>
       </c>
       <c r="T23">
-        <v>60.9</v>
+        <v>60.2081950207469</v>
       </c>
       <c r="U23">
         <v>3.1</v>
@@ -3572,16 +3572,16 @@
         <v>95.5981</v>
       </c>
       <c r="Q24">
-        <v>60682</v>
+        <v>61289.66996092853</v>
       </c>
       <c r="R24">
-        <v>0.67</v>
+        <v>0.6563935926773459</v>
       </c>
       <c r="S24">
-        <v>31.5</v>
+        <v>28.70969107551489</v>
       </c>
       <c r="T24">
-        <v>60.5</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U24">
         <v>3.1</v>
@@ -3682,16 +3682,16 @@
         <v>97.6909</v>
       </c>
       <c r="Q25">
-        <v>98816</v>
+        <v>30553.3541714548</v>
       </c>
       <c r="R25">
-        <v>0.49</v>
+        <v>0.5311304347826088</v>
       </c>
       <c r="S25">
-        <v>17.6</v>
+        <v>20.93916475972542</v>
       </c>
       <c r="T25">
-        <v>59.5</v>
+        <v>60.09819502074691</v>
       </c>
       <c r="U25">
         <v>3.1</v>
@@ -3831,16 +3831,16 @@
         <v>96.59520000000001</v>
       </c>
       <c r="Q26">
-        <v>33717</v>
+        <v>50885.44890829694</v>
       </c>
       <c r="R26">
-        <v>0.51</v>
+        <v>0.6341304347826087</v>
       </c>
       <c r="S26">
-        <v>17.1</v>
+        <v>24.16521739130436</v>
       </c>
       <c r="T26">
-        <v>58.1</v>
+        <v>59.74748073503263</v>
       </c>
       <c r="U26">
         <v>3.3</v>
@@ -3968,16 +3968,16 @@
         <v>100.1014</v>
       </c>
       <c r="Q27">
-        <v>29315</v>
+        <v>44130.93311882326</v>
       </c>
       <c r="R27">
-        <v>0.62</v>
+        <v>0.6241304347826088</v>
       </c>
       <c r="S27">
-        <v>19.6</v>
+        <v>21.22521739130436</v>
       </c>
       <c r="T27">
-        <v>57.9</v>
+        <v>59.56319502074691</v>
       </c>
       <c r="U27">
         <v>3.3</v>
@@ -4105,16 +4105,16 @@
         <v>96.3648</v>
       </c>
       <c r="Q28">
-        <v>46113</v>
+        <v>53940.51206619167</v>
       </c>
       <c r="R28">
-        <v>0.55</v>
+        <v>0.5374462242562931</v>
       </c>
       <c r="S28">
-        <v>22.6</v>
+        <v>19.907585812357</v>
       </c>
       <c r="T28">
-        <v>58.7</v>
+        <v>59.42319502074691</v>
       </c>
       <c r="U28">
         <v>3.4</v>
@@ -4257,16 +4257,16 @@
         <v>92.61490000000001</v>
       </c>
       <c r="Q29">
-        <v>27613</v>
+        <v>36343.40680303379</v>
       </c>
       <c r="R29">
-        <v>0.59</v>
+        <v>0.5706041189931351</v>
       </c>
       <c r="S29">
-        <v>25</v>
+        <v>21.547585812357</v>
       </c>
       <c r="T29">
-        <v>59.6</v>
+        <v>59.36819502074692</v>
       </c>
       <c r="U29">
         <v>3.4</v>
@@ -4394,16 +4394,16 @@
         <v>97.2906</v>
       </c>
       <c r="Q30">
-        <v>35838</v>
+        <v>42154.24890829695</v>
       </c>
       <c r="R30">
-        <v>0.57</v>
+        <v>0.5221830663615562</v>
       </c>
       <c r="S30">
-        <v>24.4</v>
+        <v>21.86969107551489</v>
       </c>
       <c r="T30">
-        <v>60.1</v>
+        <v>59.31319502074691</v>
       </c>
       <c r="U30">
         <v>3.6</v>
@@ -4531,16 +4531,16 @@
         <v>101.633</v>
       </c>
       <c r="Q31">
-        <v>148875</v>
+        <v>144935.6173293496</v>
       </c>
       <c r="R31">
-        <v>0.5</v>
+        <v>0.4769199084668195</v>
       </c>
       <c r="S31">
-        <v>18.9</v>
+        <v>18.18021739130437</v>
       </c>
       <c r="T31">
-        <v>60.1</v>
+        <v>59.22319502074691</v>
       </c>
       <c r="U31">
         <v>3.6</v>
@@ -4683,16 +4683,16 @@
         <v>100.0048</v>
       </c>
       <c r="Q32">
-        <v>45755</v>
+        <v>47431.30153987589</v>
       </c>
       <c r="R32">
-        <v>0.45</v>
+        <v>0.4969199084668194</v>
       </c>
       <c r="S32">
-        <v>19.6</v>
+        <v>20.04337528604121</v>
       </c>
       <c r="T32">
-        <v>60.2</v>
+        <v>59.40319502074691</v>
       </c>
       <c r="U32">
         <v>3.7</v>
@@ -4820,16 +4820,16 @@
         <v>99.8138</v>
       </c>
       <c r="Q33">
-        <v>22177</v>
+        <v>30844.19627671799</v>
       </c>
       <c r="R33">
-        <v>0.46</v>
+        <v>0.4095514874141878</v>
       </c>
       <c r="S33">
-        <v>17.7</v>
+        <v>17.77863844393594</v>
       </c>
       <c r="T33">
-        <v>59.3</v>
+        <v>59.07319502074691</v>
       </c>
       <c r="U33">
         <v>3.7</v>
@@ -4957,16 +4957,16 @@
         <v>96.7277</v>
       </c>
       <c r="Q34">
-        <v>24410</v>
+        <v>28522.66996092852</v>
       </c>
       <c r="R34">
-        <v>0.47</v>
+        <v>0.4500778032036615</v>
       </c>
       <c r="S34">
-        <v>18.7</v>
+        <v>17.51179633867278</v>
       </c>
       <c r="T34">
-        <v>59.7</v>
+        <v>59.19319502074691</v>
       </c>
       <c r="U34">
         <v>3.7</v>
@@ -5109,16 +5109,16 @@
         <v>100.1403</v>
       </c>
       <c r="Q35">
-        <v>31785</v>
+        <v>33161.03838198115</v>
       </c>
       <c r="R35">
-        <v>0.59</v>
+        <v>0.5537620137299771</v>
       </c>
       <c r="S35">
-        <v>13.8</v>
+        <v>14.16442791762015</v>
       </c>
       <c r="T35">
-        <v>60.1</v>
+        <v>59.4081950207469</v>
       </c>
       <c r="U35">
         <v>3.7</v>
@@ -5246,16 +5246,16 @@
         <v>101.2002</v>
       </c>
       <c r="Q36">
-        <v>32533</v>
+        <v>33140.66996092853</v>
       </c>
       <c r="R36">
-        <v>0.53</v>
+        <v>0.5163935926773459</v>
       </c>
       <c r="S36">
-        <v>18.2</v>
+        <v>15.40969107551489</v>
       </c>
       <c r="T36">
-        <v>60</v>
+        <v>59.40319502074691</v>
       </c>
       <c r="U36">
         <v>3.9</v>
@@ -5383,16 +5383,16 @@
         <v>108.3744</v>
       </c>
       <c r="Q37">
-        <v>107251</v>
+        <v>38988.3541714548</v>
       </c>
       <c r="R37">
-        <v>0.46</v>
+        <v>0.5011304347826089</v>
       </c>
       <c r="S37">
-        <v>17.2</v>
+        <v>20.53916475972542</v>
       </c>
       <c r="T37">
-        <v>59</v>
+        <v>59.59819502074691</v>
       </c>
       <c r="U37">
         <v>3.7</v>
@@ -5535,16 +5535,16 @@
         <v>107.0081</v>
       </c>
       <c r="Q38">
-        <v>14358</v>
+        <v>31526.44890829694</v>
       </c>
       <c r="R38">
-        <v>0.37</v>
+        <v>0.4941304347826087</v>
       </c>
       <c r="S38">
-        <v>10.6</v>
+        <v>17.66521739130436</v>
       </c>
       <c r="T38">
-        <v>58.6</v>
+        <v>60.24748073503263</v>
       </c>
       <c r="U38">
         <v>3.5</v>
@@ -5672,16 +5672,16 @@
         <v>104.2215</v>
       </c>
       <c r="Q39">
-        <v>24797</v>
+        <v>39612.93311882326</v>
       </c>
       <c r="R39">
-        <v>0.54</v>
+        <v>0.5441304347826088</v>
       </c>
       <c r="S39">
-        <v>15.7</v>
+        <v>17.32521739130436</v>
       </c>
       <c r="T39">
-        <v>58.7</v>
+        <v>60.36319502074691</v>
       </c>
       <c r="U39">
         <v>3.6</v>
@@ -5809,16 +5809,16 @@
         <v>105.493</v>
       </c>
       <c r="Q40">
-        <v>24466</v>
+        <v>32293.51206619167</v>
       </c>
       <c r="R40">
-        <v>0.51</v>
+        <v>0.497446224256293</v>
       </c>
       <c r="S40">
-        <v>18.9</v>
+        <v>16.207585812357</v>
       </c>
       <c r="T40">
-        <v>59.7</v>
+        <v>60.42319502074691</v>
       </c>
       <c r="U40">
         <v>3.6</v>
@@ -5961,16 +5961,16 @@
         <v>103.376</v>
       </c>
       <c r="Q41">
-        <v>18537</v>
+        <v>27267.40680303379</v>
       </c>
       <c r="R41">
-        <v>0.58</v>
+        <v>0.5606041189931351</v>
       </c>
       <c r="S41">
-        <v>26.7</v>
+        <v>23.247585812357</v>
       </c>
       <c r="T41">
-        <v>60.5</v>
+        <v>60.26819502074692</v>
       </c>
       <c r="U41">
         <v>3.6</v>
@@ -6098,16 +6098,16 @@
         <v>102.265</v>
       </c>
       <c r="Q42">
-        <v>30426</v>
+        <v>36742.24890829695</v>
       </c>
       <c r="R42">
-        <v>0.64</v>
+        <v>0.5921830663615563</v>
       </c>
       <c r="S42">
-        <v>26.3</v>
+        <v>23.76969107551489</v>
       </c>
       <c r="T42">
-        <v>60.6</v>
+        <v>59.81319502074691</v>
       </c>
       <c r="U42">
         <v>3.7</v>
@@ -6235,16 +6235,16 @@
         <v>99.24339999999999</v>
       </c>
       <c r="Q43">
-        <v>41080</v>
+        <v>37140.61732934956</v>
       </c>
       <c r="R43">
-        <v>0.54</v>
+        <v>0.5169199084668196</v>
       </c>
       <c r="S43">
-        <v>24.5</v>
+        <v>23.78021739130437</v>
       </c>
       <c r="T43">
-        <v>60.8</v>
+        <v>59.9231950207469</v>
       </c>
       <c r="U43">
         <v>3.5</v>
@@ -6387,16 +6387,16 @@
         <v>103.6678</v>
       </c>
       <c r="Q44">
-        <v>35272</v>
+        <v>36948.30153987589</v>
       </c>
       <c r="R44">
-        <v>0.64</v>
+        <v>0.6869199084668194</v>
       </c>
       <c r="S44">
-        <v>22</v>
+        <v>22.44337528604121</v>
       </c>
       <c r="T44">
-        <v>60.6</v>
+        <v>59.80319502074691</v>
       </c>
       <c r="U44">
         <v>3.7</v>
@@ -6524,16 +6524,16 @@
         <v>103.3598</v>
       </c>
       <c r="Q45">
-        <v>30103</v>
+        <v>38770.19627671799</v>
       </c>
       <c r="R45">
-        <v>0.7</v>
+        <v>0.6495514874141878</v>
       </c>
       <c r="S45">
-        <v>20.1</v>
+        <v>20.17863844393595</v>
       </c>
       <c r="T45">
-        <v>59.6</v>
+        <v>59.37319502074691</v>
       </c>
       <c r="U45">
         <v>3.8</v>
@@ -6661,16 +6661,16 @@
         <v>105.7197</v>
       </c>
       <c r="Q46">
-        <v>32985</v>
+        <v>37097.66996092852</v>
       </c>
       <c r="R46">
-        <v>0.53</v>
+        <v>0.5100778032036616</v>
       </c>
       <c r="S46">
-        <v>20.7</v>
+        <v>19.51179633867278</v>
       </c>
       <c r="T46">
-        <v>60.6</v>
+        <v>60.09319502074691</v>
       </c>
       <c r="U46">
         <v>3.7</v>
@@ -6813,16 +6813,16 @@
         <v>101.7079</v>
       </c>
       <c r="Q47">
-        <v>49055</v>
+        <v>50431.03838198115</v>
       </c>
       <c r="R47">
-        <v>0.64</v>
+        <v>0.6037620137299772</v>
       </c>
       <c r="S47">
-        <v>19.5</v>
+        <v>19.86442791762014</v>
       </c>
       <c r="T47">
-        <v>60.8</v>
+        <v>60.1081950207469</v>
       </c>
       <c r="U47">
         <v>3.7</v>
@@ -6950,16 +6950,16 @@
         <v>97.35250000000001</v>
       </c>
       <c r="Q48">
-        <v>38706</v>
+        <v>39313.66996092853</v>
       </c>
       <c r="R48">
-        <v>0.49</v>
+        <v>0.4763935926773458</v>
       </c>
       <c r="S48">
-        <v>20.6</v>
+        <v>17.80969107551489</v>
       </c>
       <c r="T48">
-        <v>60.5</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U48">
         <v>3.7</v>
@@ -7087,16 +7087,16 @@
         <v>101.0564</v>
       </c>
       <c r="Q49">
-        <v>124015</v>
+        <v>55752.3541714548</v>
       </c>
       <c r="R49">
-        <v>0.42</v>
+        <v>0.4611304347826088</v>
       </c>
       <c r="S49">
-        <v>19</v>
+        <v>22.33916475972542</v>
       </c>
       <c r="T49">
-        <v>59.6</v>
+        <v>60.19819502074692</v>
       </c>
       <c r="U49">
         <v>3.8</v>
@@ -7239,16 +7239,16 @@
         <v>99.5968</v>
       </c>
       <c r="Q50">
-        <v>30048</v>
+        <v>47216.44890829694</v>
       </c>
       <c r="R50">
-        <v>0.37</v>
+        <v>0.4941304347826087</v>
       </c>
       <c r="S50">
-        <v>12.9</v>
+        <v>19.96521739130436</v>
       </c>
       <c r="T50">
-        <v>58.4</v>
+        <v>60.04748073503263</v>
       </c>
       <c r="U50">
         <v>3.8</v>
@@ -7376,16 +7376,16 @@
         <v>98.3657</v>
       </c>
       <c r="Q51">
-        <v>17458</v>
+        <v>32273.93311882326</v>
       </c>
       <c r="R51">
-        <v>0.47</v>
+        <v>0.4741304347826087</v>
       </c>
       <c r="S51">
-        <v>16</v>
+        <v>17.62521739130436</v>
       </c>
       <c r="T51">
-        <v>58.3</v>
+        <v>59.96319502074691</v>
       </c>
       <c r="U51">
         <v>3.7</v>
@@ -7513,16 +7513,16 @@
         <v>104.4836</v>
       </c>
       <c r="Q52">
-        <v>30743</v>
+        <v>38570.51206619167</v>
       </c>
       <c r="R52">
-        <v>0.49</v>
+        <v>0.477446224256293</v>
       </c>
       <c r="S52">
-        <v>19.1</v>
+        <v>16.407585812357</v>
       </c>
       <c r="T52">
-        <v>59.4</v>
+        <v>60.12319502074691</v>
       </c>
       <c r="U52">
         <v>3.7</v>
@@ -7665,16 +7665,16 @@
         <v>105.1072</v>
       </c>
       <c r="Q53">
-        <v>25115</v>
+        <v>33845.40680303379</v>
       </c>
       <c r="R53">
-        <v>0.5600000000000001</v>
+        <v>0.5406041189931352</v>
       </c>
       <c r="S53">
-        <v>23.1</v>
+        <v>19.647585812357</v>
       </c>
       <c r="T53">
-        <v>60.3</v>
+        <v>60.06819502074691</v>
       </c>
       <c r="U53">
         <v>3.7</v>
@@ -7802,16 +7802,16 @@
         <v>106.745</v>
       </c>
       <c r="Q54">
-        <v>56039</v>
+        <v>62355.24890829695</v>
       </c>
       <c r="R54">
-        <v>0.57</v>
+        <v>0.5221830663615562</v>
       </c>
       <c r="S54">
-        <v>27.9</v>
+        <v>25.36969107551489</v>
       </c>
       <c r="T54">
-        <v>60.8</v>
+        <v>60.01319502074691</v>
       </c>
       <c r="U54">
         <v>3.7</v>
@@ -7939,16 +7939,16 @@
         <v>107.0997</v>
       </c>
       <c r="Q55">
-        <v>32145</v>
+        <v>28205.61732934956</v>
       </c>
       <c r="R55">
-        <v>0.53</v>
+        <v>0.5069199084668196</v>
       </c>
       <c r="S55">
-        <v>27</v>
+        <v>26.28021739130437</v>
       </c>
       <c r="T55">
-        <v>60.8</v>
+        <v>59.9231950207469</v>
       </c>
       <c r="U55">
         <v>3.8</v>
@@ -8091,16 +8091,16 @@
         <v>104.7035</v>
       </c>
       <c r="Q56">
-        <v>26642</v>
+        <v>28318.30153987589</v>
       </c>
       <c r="R56">
-        <v>0.5</v>
+        <v>0.5469199084668194</v>
       </c>
       <c r="S56">
-        <v>25.5</v>
+        <v>25.94337528604121</v>
       </c>
       <c r="T56">
-        <v>60.6</v>
+        <v>59.80319502074691</v>
       </c>
       <c r="U56">
         <v>3.8</v>
@@ -8228,16 +8228,16 @@
         <v>104.8727</v>
       </c>
       <c r="Q57">
-        <v>20202</v>
+        <v>28869.19627671799</v>
       </c>
       <c r="R57">
-        <v>0.55</v>
+        <v>0.4995514874141879</v>
       </c>
       <c r="S57">
-        <v>23.9</v>
+        <v>23.97863844393594</v>
       </c>
       <c r="T57">
-        <v>59.7</v>
+        <v>59.47319502074691</v>
       </c>
       <c r="U57">
         <v>3.7</v>
@@ -8365,16 +8365,16 @@
         <v>104.761</v>
       </c>
       <c r="Q58">
-        <v>25373</v>
+        <v>29485.66996092852</v>
       </c>
       <c r="R58">
-        <v>0.5600000000000001</v>
+        <v>0.5400778032036616</v>
       </c>
       <c r="S58">
-        <v>25.2</v>
+        <v>24.01179633867278</v>
       </c>
       <c r="T58">
-        <v>60.2</v>
+        <v>59.69319502074691</v>
       </c>
       <c r="U58">
         <v>4</v>
@@ -8517,16 +8517,16 @@
         <v>102.2283</v>
       </c>
       <c r="Q59">
-        <v>26024</v>
+        <v>27400.03838198115</v>
       </c>
       <c r="R59">
-        <v>0.59</v>
+        <v>0.5537620137299771</v>
       </c>
       <c r="S59">
-        <v>27.3</v>
+        <v>27.66442791762015</v>
       </c>
       <c r="T59">
-        <v>60.5</v>
+        <v>59.8081950207469</v>
       </c>
       <c r="U59">
         <v>3.9</v>
@@ -8654,16 +8654,16 @@
         <v>106.0255</v>
       </c>
       <c r="Q60">
-        <v>25822</v>
+        <v>26429.66996092853</v>
       </c>
       <c r="R60">
-        <v>0.58</v>
+        <v>0.5663935926773458</v>
       </c>
       <c r="S60">
-        <v>32.6</v>
+        <v>29.80969107551489</v>
       </c>
       <c r="T60">
-        <v>60.5</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U60">
         <v>3.6</v>
@@ -8791,16 +8791,16 @@
         <v>102.5676</v>
       </c>
       <c r="Q61">
-        <v>148030</v>
+        <v>79767.3541714548</v>
       </c>
       <c r="R61">
-        <v>0.45</v>
+        <v>0.4911304347826088</v>
       </c>
       <c r="S61">
-        <v>21.1</v>
+        <v>24.43916475972542</v>
       </c>
       <c r="T61">
-        <v>59.2</v>
+        <v>59.79819502074692</v>
       </c>
       <c r="U61">
         <v>3.5</v>
@@ -8943,16 +8943,16 @@
         <v>98.0681</v>
       </c>
       <c r="Q62">
-        <v>30459</v>
+        <v>47627.44890829694</v>
       </c>
       <c r="R62">
-        <v>0.38</v>
+        <v>0.5041304347826087</v>
       </c>
       <c r="S62">
-        <v>17.9</v>
+        <v>24.96521739130436</v>
       </c>
       <c r="T62">
-        <v>58.5</v>
+        <v>60.14748073503263</v>
       </c>
       <c r="U62">
         <v>3.4</v>
@@ -9080,16 +9080,16 @@
         <v>99.7563</v>
       </c>
       <c r="Q63">
-        <v>28862</v>
+        <v>43677.93311882326</v>
       </c>
       <c r="R63">
-        <v>0.51</v>
+        <v>0.5141304347826088</v>
       </c>
       <c r="S63">
-        <v>21.7</v>
+        <v>23.32521739130436</v>
       </c>
       <c r="T63">
-        <v>58.3</v>
+        <v>59.96319502074691</v>
       </c>
       <c r="U63">
         <v>3.6</v>
@@ -9217,16 +9217,16 @@
         <v>106.3285</v>
       </c>
       <c r="Q64">
-        <v>24470</v>
+        <v>32297.51206619167</v>
       </c>
       <c r="R64">
-        <v>0.55</v>
+        <v>0.5374462242562931</v>
       </c>
       <c r="S64">
-        <v>28.58</v>
+        <v>25.887585812357</v>
       </c>
       <c r="T64">
-        <v>59.4</v>
+        <v>60.12319502074691</v>
       </c>
       <c r="U64">
         <v>3.5</v>
@@ -9369,16 +9369,16 @@
         <v>104.1006</v>
       </c>
       <c r="Q65">
-        <v>26968</v>
+        <v>35698.40680303379</v>
       </c>
       <c r="R65">
-        <v>0.59</v>
+        <v>0.5706041189931351</v>
       </c>
       <c r="S65">
-        <v>31.22</v>
+        <v>27.767585812357</v>
       </c>
       <c r="T65">
-        <v>60.4</v>
+        <v>60.16819502074691</v>
       </c>
       <c r="U65">
         <v>3.5</v>
@@ -9506,16 +9506,16 @@
         <v>103.8565</v>
       </c>
       <c r="Q66">
-        <v>28227</v>
+        <v>34543.24890829695</v>
       </c>
       <c r="R66">
-        <v>0.5600000000000001</v>
+        <v>0.5121830663615563</v>
       </c>
       <c r="S66">
-        <v>27.7</v>
+        <v>25.16969107551489</v>
       </c>
       <c r="T66">
-        <v>60.9</v>
+        <v>60.11319502074691</v>
       </c>
       <c r="U66">
         <v>3.4</v>
@@ -9643,16 +9643,16 @@
         <v>102.6973</v>
       </c>
       <c r="Q67">
-        <v>42360</v>
+        <v>38420.61732934956</v>
       </c>
       <c r="R67">
-        <v>0.5</v>
+        <v>0.4769199084668195</v>
       </c>
       <c r="S67">
-        <v>24.4</v>
+        <v>23.68021739130437</v>
       </c>
       <c r="T67">
-        <v>60.9</v>
+        <v>60.0231950207469</v>
       </c>
       <c r="U67">
         <v>3.5</v>
@@ -9795,16 +9795,16 @@
         <v>99.76600000000001</v>
       </c>
       <c r="Q68">
-        <v>57265</v>
+        <v>58941.30153987589</v>
       </c>
       <c r="R68">
-        <v>0.41</v>
+        <v>0.4569199084668193</v>
       </c>
       <c r="S68">
-        <v>24.3</v>
+        <v>24.74337528604121</v>
       </c>
       <c r="T68">
-        <v>60.7</v>
+        <v>59.90319502074691</v>
       </c>
       <c r="U68">
         <v>3.5</v>
@@ -9932,16 +9932,16 @@
         <v>103.0071</v>
       </c>
       <c r="Q69">
-        <v>22828</v>
+        <v>31495.19627671799</v>
       </c>
       <c r="R69">
-        <v>0.51</v>
+        <v>0.4595514874141878</v>
       </c>
       <c r="S69">
-        <v>24.53</v>
+        <v>24.60863844393594</v>
       </c>
       <c r="T69">
-        <v>60</v>
+        <v>59.77319502074691</v>
       </c>
       <c r="U69">
         <v>3.5</v>
@@ -10069,16 +10069,16 @@
         <v>106.0952</v>
       </c>
       <c r="Q70">
-        <v>42119</v>
+        <v>46231.66996092852</v>
       </c>
       <c r="R70">
-        <v>0.47</v>
+        <v>0.4500778032036615</v>
       </c>
       <c r="S70">
-        <v>26.4</v>
+        <v>25.21179633867278</v>
       </c>
       <c r="T70">
-        <v>60.4</v>
+        <v>59.89319502074691</v>
       </c>
       <c r="U70">
         <v>3.5</v>
@@ -10221,16 +10221,16 @@
         <v>113.9562</v>
       </c>
       <c r="Q71">
-        <v>23734</v>
+        <v>25110.03838198115</v>
       </c>
       <c r="R71">
-        <v>0.47</v>
+        <v>0.4337620137299771</v>
       </c>
       <c r="S71">
-        <v>22.7</v>
+        <v>23.06442791762014</v>
       </c>
       <c r="T71">
-        <v>60.7</v>
+        <v>60.0081950207469</v>
       </c>
       <c r="U71">
         <v>3.6</v>
@@ -10358,16 +10358,16 @@
         <v>107.298</v>
       </c>
       <c r="Q72">
-        <v>30166</v>
+        <v>30773.66996092853</v>
       </c>
       <c r="R72">
-        <v>0.43</v>
+        <v>0.4163935926773458</v>
       </c>
       <c r="S72">
-        <v>25.34</v>
+        <v>22.54969107551489</v>
       </c>
       <c r="T72">
-        <v>60.6</v>
+        <v>60.00319502074692</v>
       </c>
       <c r="U72">
         <v>3.5</v>
@@ -10495,16 +10495,16 @@
         <v>107.4657</v>
       </c>
       <c r="Q73">
-        <v>112045</v>
+        <v>43782.3541714548</v>
       </c>
       <c r="R73">
-        <v>0.42</v>
+        <v>0.4611304347826088</v>
       </c>
       <c r="S73">
-        <v>23.98</v>
+        <v>27.31916475972542</v>
       </c>
       <c r="T73">
-        <v>59.4</v>
+        <v>59.99819502074691</v>
       </c>
       <c r="U73">
         <v>3.4</v>
@@ -10647,16 +10647,16 @@
         <v>105.123</v>
       </c>
       <c r="Q74">
-        <v>12038</v>
+        <v>29206.44890829694</v>
       </c>
       <c r="R74">
-        <v>0.37</v>
+        <v>0.4941304347826087</v>
       </c>
       <c r="S74">
-        <v>21.8</v>
+        <v>28.86521739130436</v>
       </c>
       <c r="T74">
-        <v>58.7</v>
+        <v>60.34748073503263</v>
       </c>
       <c r="U74">
         <v>3.4</v>
@@ -10784,16 +10784,16 @@
         <v>109.0331</v>
       </c>
       <c r="Q75">
-        <v>17751</v>
+        <v>32566.93311882326</v>
       </c>
       <c r="R75">
-        <v>0.39</v>
+        <v>0.3941304347826088</v>
       </c>
       <c r="S75">
-        <v>24.4</v>
+        <v>26.02521739130436</v>
       </c>
       <c r="T75">
-        <v>58.5</v>
+        <v>60.16319502074691</v>
       </c>
       <c r="U75">
         <v>3.2</v>
@@ -10921,16 +10921,16 @@
         <v>106.7167</v>
       </c>
       <c r="Q76">
-        <v>20038</v>
+        <v>27865.51206619167</v>
       </c>
       <c r="R76">
-        <v>0.52</v>
+        <v>0.507446224256293</v>
       </c>
       <c r="S76">
-        <v>28.9</v>
+        <v>26.207585812357</v>
       </c>
       <c r="T76">
-        <v>59.6</v>
+        <v>60.32319502074691</v>
       </c>
       <c r="U76">
         <v>3.2</v>
@@ -11073,16 +11073,16 @@
         <v>108.5913</v>
       </c>
       <c r="Q77">
-        <v>19186</v>
+        <v>27916.40680303379</v>
       </c>
       <c r="R77">
-        <v>0.52</v>
+        <v>0.5006041189931352</v>
       </c>
       <c r="S77">
-        <v>28.7</v>
+        <v>25.247585812357</v>
       </c>
       <c r="T77">
-        <v>60.5</v>
+        <v>60.26819502074692</v>
       </c>
       <c r="U77">
         <v>3.3</v>
@@ -11210,16 +11210,16 @@
         <v>107.4103</v>
       </c>
       <c r="Q78">
-        <v>31197</v>
+        <v>37513.24890829695</v>
       </c>
       <c r="R78">
-        <v>0.54</v>
+        <v>0.4921830663615563</v>
       </c>
       <c r="S78">
-        <v>27.4</v>
+        <v>24.86969107551489</v>
       </c>
       <c r="T78">
-        <v>61</v>
+        <v>60.21319502074691</v>
       </c>
       <c r="U78">
         <v>3.3</v>
@@ -11347,16 +11347,16 @@
         <v>104.2505</v>
       </c>
       <c r="Q79">
-        <v>30226</v>
+        <v>26286.61732934956</v>
       </c>
       <c r="R79">
-        <v>0.53</v>
+        <v>0.5069199084668196</v>
       </c>
       <c r="S79">
-        <v>26.7</v>
+        <v>25.98021739130437</v>
       </c>
       <c r="T79">
-        <v>61.1</v>
+        <v>60.22319502074691</v>
       </c>
       <c r="U79">
         <v>3.2</v>
@@ -11499,16 +11499,16 @@
         <v>110.1155</v>
       </c>
       <c r="Q80">
-        <v>45848</v>
+        <v>47524.30153987589</v>
       </c>
       <c r="R80">
-        <v>0.47</v>
+        <v>0.5169199084668193</v>
       </c>
       <c r="S80">
-        <v>22.9</v>
+        <v>23.3433752860412</v>
       </c>
       <c r="T80">
-        <v>60.9</v>
+        <v>60.10319502074691</v>
       </c>
       <c r="U80">
         <v>3.3</v>
@@ -11636,16 +11636,16 @@
         <v>109.6796</v>
       </c>
       <c r="Q81">
-        <v>48461</v>
+        <v>57128.19627671799</v>
       </c>
       <c r="R81">
-        <v>0.58</v>
+        <v>0.5295514874141878</v>
       </c>
       <c r="S81">
-        <v>22.9</v>
+        <v>22.97863844393594</v>
       </c>
       <c r="T81">
-        <v>60.1</v>
+        <v>59.87319502074691</v>
       </c>
       <c r="U81">
         <v>3.3</v>
@@ -11773,16 +11773,16 @@
         <v>105.692</v>
       </c>
       <c r="Q82">
-        <v>55745</v>
+        <v>59857.66996092852</v>
       </c>
       <c r="R82">
-        <v>0.5600000000000001</v>
+        <v>0.5400778032036616</v>
       </c>
       <c r="S82">
-        <v>25.2</v>
+        <v>24.01179633867278</v>
       </c>
       <c r="T82">
-        <v>60.5</v>
+        <v>59.99319502074691</v>
       </c>
       <c r="U82">
         <v>3.2</v>
@@ -11925,16 +11925,16 @@
         <v>109.1319</v>
       </c>
       <c r="Q83">
-        <v>102670</v>
+        <v>104046.0383819811</v>
       </c>
       <c r="R83">
-        <v>0.61</v>
+        <v>0.5737620137299771</v>
       </c>
       <c r="S83">
-        <v>23.8</v>
+        <v>24.16442791762015</v>
       </c>
       <c r="T83">
-        <v>60.7</v>
+        <v>60.0081950207469</v>
       </c>
       <c r="U83">
         <v>3.3</v>
@@ -12062,16 +12062,16 @@
         <v>109.6664</v>
       </c>
       <c r="Q84">
-        <v>75485</v>
+        <v>76092.66996092853</v>
       </c>
       <c r="R84">
-        <v>0.5600000000000001</v>
+        <v>0.5463935926773459</v>
       </c>
       <c r="S84">
-        <v>28.7</v>
+        <v>25.90969107551489</v>
       </c>
       <c r="T84">
-        <v>60.7</v>
+        <v>60.10319502074692</v>
       </c>
       <c r="U84">
         <v>3.3</v>
@@ -12199,16 +12199,16 @@
         <v>114.2614</v>
       </c>
       <c r="Q85">
-        <v>97147</v>
+        <v>28884.3541714548</v>
       </c>
       <c r="R85">
-        <v>0.52</v>
+        <v>0.5611304347826088</v>
       </c>
       <c r="S85">
-        <v>25.9</v>
+        <v>29.23916475972542</v>
       </c>
       <c r="T85">
-        <v>59.4</v>
+        <v>59.99819502074691</v>
       </c>
       <c r="U85">
         <v>3.2</v>
@@ -12351,16 +12351,16 @@
         <v>109.8222</v>
       </c>
       <c r="Q86">
-        <v>20841</v>
+        <v>38009.44890829694</v>
       </c>
       <c r="R86">
-        <v>0.47</v>
+        <v>0.5941304347826086</v>
       </c>
       <c r="S86">
-        <v>22.1</v>
+        <v>29.16521739130436</v>
       </c>
       <c r="T86">
-        <v>58.6</v>
+        <v>60.24748073503263</v>
       </c>
       <c r="U86">
         <v>3</v>
@@ -12488,16 +12488,16 @@
         <v>104.6487</v>
       </c>
       <c r="Q87">
-        <v>13211</v>
+        <v>28026.93311882326</v>
       </c>
       <c r="R87">
-        <v>0.5600000000000001</v>
+        <v>0.5641304347826088</v>
       </c>
       <c r="S87">
-        <v>25</v>
+        <v>26.62521739130436</v>
       </c>
       <c r="T87">
-        <v>58.3</v>
+        <v>59.96319502074691</v>
       </c>
       <c r="U87">
         <v>3</v>
@@ -12625,16 +12625,16 @@
         <v>102.8129</v>
       </c>
       <c r="Q88">
-        <v>14245</v>
+        <v>22072.51206619167</v>
       </c>
       <c r="R88">
-        <v>0.55</v>
+        <v>0.5374462242562931</v>
       </c>
       <c r="S88">
-        <v>29.6</v>
+        <v>26.907585812357</v>
       </c>
       <c r="T88">
-        <v>59.3</v>
+        <v>60.0231950207469</v>
       </c>
       <c r="U88">
         <v>3</v>
@@ -12777,16 +12777,16 @@
         <v>102.3223</v>
       </c>
       <c r="Q89">
-        <v>34109</v>
+        <v>42839.40680303379</v>
       </c>
       <c r="R89">
-        <v>0.54</v>
+        <v>0.5206041189931352</v>
       </c>
       <c r="S89">
-        <v>30.4</v>
+        <v>26.947585812357</v>
       </c>
       <c r="T89">
-        <v>60.3</v>
+        <v>60.06819502074691</v>
       </c>
       <c r="U89">
         <v>3.1</v>
@@ -12914,16 +12914,16 @@
         <v>101.7576</v>
       </c>
       <c r="Q90">
-        <v>26023</v>
+        <v>32339.24890829695</v>
       </c>
       <c r="R90">
-        <v>0.64</v>
+        <v>0.5921830663615563</v>
       </c>
       <c r="S90">
-        <v>31.7</v>
+        <v>29.16969107551489</v>
       </c>
       <c r="T90">
-        <v>60.8</v>
+        <v>60.01319502074691</v>
       </c>
       <c r="U90">
         <v>3.2</v>
@@ -13051,16 +13051,16 @@
         <v>95.8537</v>
       </c>
       <c r="Q91">
-        <v>23831</v>
+        <v>19891.61732934956</v>
       </c>
       <c r="R91">
-        <v>0.6</v>
+        <v>0.5769199084668195</v>
       </c>
       <c r="S91">
-        <v>27.3</v>
+        <v>26.58021739130437</v>
       </c>
       <c r="T91">
-        <v>60.8</v>
+        <v>59.9231950207469</v>
       </c>
       <c r="U91">
         <v>3.1</v>
@@ -13203,16 +13203,16 @@
         <v>99.2043</v>
       </c>
       <c r="Q92">
-        <v>22805</v>
+        <v>24481.30153987589</v>
       </c>
       <c r="R92">
-        <v>0.52</v>
+        <v>0.5669199084668194</v>
       </c>
       <c r="S92">
-        <v>25.4</v>
+        <v>25.8433752860412</v>
       </c>
       <c r="T92">
-        <v>60.6</v>
+        <v>59.80319502074691</v>
       </c>
       <c r="U92">
         <v>3.1</v>
@@ -13346,16 +13346,16 @@
         <v>102.4028</v>
       </c>
       <c r="Q93">
-        <v>22086</v>
+        <v>30753.19627671799</v>
       </c>
       <c r="R93">
-        <v>0.61</v>
+        <v>0.5595514874141878</v>
       </c>
       <c r="S93">
-        <v>26.4</v>
+        <v>26.47863844393594</v>
       </c>
       <c r="T93">
-        <v>59.8</v>
+        <v>59.57319502074691</v>
       </c>
       <c r="U93">
         <v>3.3</v>
@@ -13489,16 +13489,16 @@
         <v>100.2239</v>
       </c>
       <c r="Q94">
-        <v>18734</v>
+        <v>22846.66996092852</v>
       </c>
       <c r="R94">
-        <v>0.61</v>
+        <v>0.5900778032036615</v>
       </c>
       <c r="S94">
-        <v>26.1</v>
+        <v>24.91179633867278</v>
       </c>
       <c r="T94">
-        <v>60</v>
+        <v>59.49319502074691</v>
       </c>
       <c r="U94">
         <v>3.2</v>
@@ -13647,16 +13647,16 @@
         <v>97.9093</v>
       </c>
       <c r="Q95">
-        <v>21746</v>
+        <v>23122.03838198115</v>
       </c>
       <c r="R95">
-        <v>0.5600000000000001</v>
+        <v>0.5237620137299772</v>
       </c>
       <c r="S95">
-        <v>27.1</v>
+        <v>27.46442791762015</v>
       </c>
       <c r="T95">
-        <v>60.2</v>
+        <v>59.5081950207469</v>
       </c>
       <c r="U95">
         <v>3.3</v>
@@ -13790,16 +13790,16 @@
         <v>95.2308</v>
       </c>
       <c r="Q96">
-        <v>32403</v>
+        <v>33010.66996092853</v>
       </c>
       <c r="R96">
-        <v>0.5</v>
+        <v>0.4863935926773458</v>
       </c>
       <c r="S96">
-        <v>25.4</v>
+        <v>22.60969107551489</v>
       </c>
       <c r="T96">
-        <v>60.1</v>
+        <v>59.50319502074692</v>
       </c>
       <c r="U96">
         <v>3.4</v>
@@ -13933,16 +13933,16 @@
         <v>87.72410000000001</v>
       </c>
       <c r="Q97">
-        <v>121251</v>
+        <v>52988.3541714548</v>
       </c>
       <c r="R97">
-        <v>0.32</v>
+        <v>0.3611304347826088</v>
       </c>
       <c r="S97">
-        <v>18</v>
+        <v>21.33916475972542</v>
       </c>
       <c r="T97">
-        <v>58.6</v>
+        <v>59.19819502074692</v>
       </c>
       <c r="U97">
         <v>3.4</v>
@@ -14091,16 +14091,16 @@
         <v>100.3688</v>
       </c>
       <c r="Q98">
-        <v>9363</v>
+        <v>26531.44890829694</v>
       </c>
       <c r="R98">
-        <v>0.27</v>
+        <v>0.3941304347826087</v>
       </c>
       <c r="S98">
-        <v>16.4</v>
+        <v>23.46521739130436</v>
       </c>
       <c r="T98">
-        <v>57.5</v>
+        <v>59.14748073503263</v>
       </c>
       <c r="U98">
         <v>3.3</v>
@@ -14234,16 +14234,16 @@
         <v>101.928</v>
       </c>
       <c r="Q99">
-        <v>10454</v>
+        <v>25269.93311882326</v>
       </c>
       <c r="R99">
-        <v>0.36</v>
+        <v>0.3641304347826088</v>
       </c>
       <c r="S99">
-        <v>21</v>
+        <v>22.62521739130436</v>
       </c>
       <c r="T99">
-        <v>57.1</v>
+        <v>58.76319502074691</v>
       </c>
       <c r="U99">
         <v>3.3</v>
@@ -14377,16 +14377,16 @@
         <v>95.92910000000001</v>
       </c>
       <c r="Q100">
-        <v>14127</v>
+        <v>21954.51206619167</v>
       </c>
       <c r="R100">
-        <v>0.36</v>
+        <v>0.347446224256293</v>
       </c>
       <c r="S100">
-        <v>24.1</v>
+        <v>21.407585812357</v>
       </c>
       <c r="T100">
-        <v>58</v>
+        <v>58.72319502074691</v>
       </c>
       <c r="U100">
         <v>3.5</v>
@@ -14535,16 +14535,16 @@
         <v>102.6276</v>
       </c>
       <c r="Q101">
-        <v>16387</v>
+        <v>25117.40680303379</v>
       </c>
       <c r="R101">
-        <v>0.41</v>
+        <v>0.3906041189931351</v>
       </c>
       <c r="S101">
-        <v>25.4</v>
+        <v>21.947585812357</v>
       </c>
       <c r="T101">
-        <v>59</v>
+        <v>58.76819502074692</v>
       </c>
       <c r="U101">
         <v>3.6</v>
@@ -14678,16 +14678,16 @@
         <v>99.9135</v>
       </c>
       <c r="Q102">
-        <v>16849</v>
+        <v>23165.24890829695</v>
       </c>
       <c r="R102">
-        <v>0.45</v>
+        <v>0.4021830663615563</v>
       </c>
       <c r="S102">
-        <v>25.2</v>
+        <v>22.66969107551489</v>
       </c>
       <c r="T102">
-        <v>59.4</v>
+        <v>58.61319502074691</v>
       </c>
       <c r="U102">
         <v>3.9</v>
@@ -14821,16 +14821,16 @@
         <v>108.7318</v>
       </c>
       <c r="Q103">
-        <v>31781</v>
+        <v>27841.61732934956</v>
       </c>
       <c r="R103">
-        <v>0.41</v>
+        <v>0.3869199084668195</v>
       </c>
       <c r="S103">
-        <v>25.3</v>
+        <v>24.58021739130437</v>
       </c>
       <c r="T103">
-        <v>60</v>
+        <v>59.12319502074691</v>
       </c>
       <c r="U103">
         <v>3.9</v>
@@ -14979,16 +14979,16 @@
         <v>100.0588</v>
       </c>
       <c r="Q104">
-        <v>23065</v>
+        <v>24741.30153987589</v>
       </c>
       <c r="R104">
-        <v>0.44</v>
+        <v>0.4869199084668194</v>
       </c>
       <c r="S104">
-        <v>25.1</v>
+        <v>25.54337528604121</v>
       </c>
       <c r="T104">
-        <v>59.5</v>
+        <v>58.70319502074691</v>
       </c>
       <c r="U104">
         <v>3.8</v>
@@ -15122,16 +15122,16 @@
         <v>97.4237</v>
       </c>
       <c r="Q105">
-        <v>23866</v>
+        <v>32533.19627671799</v>
       </c>
       <c r="R105">
-        <v>0.55</v>
+        <v>0.4995514874141879</v>
       </c>
       <c r="S105">
-        <v>25.1</v>
+        <v>25.17863844393595</v>
       </c>
       <c r="T105">
-        <v>59</v>
+        <v>58.77319502074691</v>
       </c>
       <c r="U105">
         <v>3.8</v>
@@ -15265,16 +15265,16 @@
         <v>103.8792</v>
       </c>
       <c r="Q106">
-        <v>32201</v>
+        <v>36313.66996092852</v>
       </c>
       <c r="R106">
-        <v>0.53</v>
+        <v>0.5100778032036616</v>
       </c>
       <c r="S106">
-        <v>30.8</v>
+        <v>29.61179633867278</v>
       </c>
       <c r="T106">
-        <v>59.4</v>
+        <v>58.89319502074691</v>
       </c>
       <c r="U106">
         <v>3.6</v>
@@ -15423,16 +15423,16 @@
         <v>100.1449</v>
       </c>
       <c r="Q107">
-        <v>24450</v>
+        <v>25826.03838198115</v>
       </c>
       <c r="R107">
-        <v>0.6</v>
+        <v>0.5637620137299771</v>
       </c>
       <c r="S107">
-        <v>27.9</v>
+        <v>28.26442791762014</v>
       </c>
       <c r="T107">
-        <v>59.4</v>
+        <v>58.7081950207469</v>
       </c>
       <c r="U107">
         <v>3.6</v>
@@ -15566,16 +15566,16 @@
         <v>100.8943</v>
       </c>
       <c r="Q108">
-        <v>33739</v>
+        <v>34346.66996092853</v>
       </c>
       <c r="R108">
-        <v>0.62</v>
+        <v>0.6063935926773458</v>
       </c>
       <c r="S108">
-        <v>29.2</v>
+        <v>26.40969107551489</v>
       </c>
       <c r="T108">
-        <v>59.2</v>
+        <v>58.60319502074692</v>
       </c>
       <c r="U108">
         <v>3.7</v>
@@ -15709,16 +15709,16 @@
         <v>97.31610000000001</v>
       </c>
       <c r="Q109">
-        <v>145505</v>
+        <v>77242.3541714548</v>
       </c>
       <c r="R109">
-        <v>0.46</v>
+        <v>0.5011304347826089</v>
       </c>
       <c r="S109">
-        <v>20</v>
+        <v>23.33916475972542</v>
       </c>
       <c r="T109">
-        <v>57.8</v>
+        <v>58.39819502074691</v>
       </c>
       <c r="U109">
         <v>3.6</v>
@@ -15867,16 +15867,16 @@
         <v>103.0231</v>
       </c>
       <c r="Q110">
-        <v>9282</v>
+        <v>26450.44890829694</v>
       </c>
       <c r="R110">
-        <v>0.45</v>
+        <v>0.5741304347826086</v>
       </c>
       <c r="S110">
-        <v>16.3</v>
+        <v>23.36521739130436</v>
       </c>
       <c r="T110">
-        <v>56.8</v>
+        <v>58.44748073503263</v>
       </c>
       <c r="U110">
         <v>4.7</v>
@@ -16010,16 +16010,16 @@
         <v>102.7144</v>
       </c>
       <c r="Q111">
-        <v>15237</v>
+        <v>30052.93311882326</v>
       </c>
       <c r="R111">
-        <v>0.65</v>
+        <v>0.6541304347826088</v>
       </c>
       <c r="S111">
-        <v>25.1</v>
+        <v>26.72521739130436</v>
       </c>
       <c r="T111">
-        <v>56.7</v>
+        <v>58.36319502074691</v>
       </c>
       <c r="U111">
         <v>4</v>
@@ -16153,16 +16153,16 @@
         <v>101.6672</v>
       </c>
       <c r="Q112">
-        <v>25029</v>
+        <v>32856.51206619167</v>
       </c>
       <c r="R112">
-        <v>0.6899999999999999</v>
+        <v>0.677446224256293</v>
       </c>
       <c r="S112">
-        <v>27.7</v>
+        <v>25.007585812357</v>
       </c>
       <c r="T112">
-        <v>57.9</v>
+        <v>58.62319502074691</v>
       </c>
       <c r="U112">
         <v>3.6</v>
@@ -16311,16 +16311,16 @@
         <v>97.3006</v>
       </c>
       <c r="Q113">
-        <v>21077</v>
+        <v>29807.40680303379</v>
       </c>
       <c r="R113">
-        <v>0.64</v>
+        <v>0.6206041189931352</v>
       </c>
       <c r="S113">
-        <v>28.7</v>
+        <v>25.247585812357</v>
       </c>
       <c r="T113">
-        <v>59.2</v>
+        <v>58.96819502074692</v>
       </c>
       <c r="U113">
         <v>3.6</v>
@@ -16454,16 +16454,16 @@
         <v>100.5563</v>
       </c>
       <c r="Q114">
-        <v>21374</v>
+        <v>27690.24890829695</v>
       </c>
       <c r="R114">
-        <v>0.6899999999999999</v>
+        <v>0.6421830663615562</v>
       </c>
       <c r="S114">
-        <v>27.8</v>
+        <v>25.26969107551489</v>
       </c>
       <c r="T114">
-        <v>60.1</v>
+        <v>59.31319502074691</v>
       </c>
       <c r="U114">
         <v>3.2</v>
@@ -16597,16 +16597,16 @@
         <v>100.6668</v>
       </c>
       <c r="Q115">
-        <v>18310</v>
+        <v>14370.61732934956</v>
       </c>
       <c r="R115">
-        <v>0.68</v>
+        <v>0.6569199084668196</v>
       </c>
       <c r="S115">
-        <v>26.3</v>
+        <v>25.58021739130437</v>
       </c>
       <c r="T115">
-        <v>60</v>
+        <v>59.12319502074691</v>
       </c>
       <c r="U115">
         <v>3.5</v>
@@ -16755,16 +16755,16 @@
         <v>100.1615</v>
       </c>
       <c r="Q116">
-        <v>16812</v>
+        <v>18488.30153987589</v>
       </c>
       <c r="R116">
-        <v>0.58</v>
+        <v>0.6269199084668193</v>
       </c>
       <c r="S116">
-        <v>24.5</v>
+        <v>24.94337528604121</v>
       </c>
       <c r="T116">
-        <v>60</v>
+        <v>59.20319502074691</v>
       </c>
       <c r="U116">
         <v>3.8</v>
@@ -16898,16 +16898,16 @@
         <v>97.11450000000001</v>
       </c>
       <c r="Q117">
-        <v>14888</v>
+        <v>23555.19627671799</v>
       </c>
       <c r="R117">
-        <v>0.77</v>
+        <v>0.7195514874141878</v>
       </c>
       <c r="S117">
-        <v>26</v>
+        <v>26.07863844393594</v>
       </c>
       <c r="T117">
-        <v>59.2</v>
+        <v>58.97319502074691</v>
       </c>
       <c r="U117">
         <v>3.5</v>
@@ -17041,16 +17041,16 @@
         <v>92.8766</v>
       </c>
       <c r="Q118">
-        <v>21285</v>
+        <v>25397.66996092852</v>
       </c>
       <c r="R118">
-        <v>0.63</v>
+        <v>0.6100778032036616</v>
       </c>
       <c r="S118">
-        <v>26.3</v>
+        <v>25.11179633867278</v>
       </c>
       <c r="T118">
-        <v>59.3</v>
+        <v>58.79319502074691</v>
       </c>
       <c r="U118">
         <v>3.8</v>
@@ -17199,16 +17199,16 @@
         <v>90.0903</v>
       </c>
       <c r="Q119">
-        <v>27437</v>
+        <v>28813.03838198115</v>
       </c>
       <c r="R119">
-        <v>0.68</v>
+        <v>0.6437620137299772</v>
       </c>
       <c r="S119">
-        <v>26.6</v>
+        <v>26.96442791762015</v>
       </c>
       <c r="T119">
-        <v>59.5</v>
+        <v>58.8081950207469</v>
       </c>
       <c r="U119">
         <v>3.7</v>
@@ -17342,16 +17342,16 @@
         <v>92.7663</v>
       </c>
       <c r="Q120">
-        <v>38308</v>
+        <v>38915.66996092853</v>
       </c>
       <c r="R120">
-        <v>0.64</v>
+        <v>0.6263935926773458</v>
       </c>
       <c r="S120">
-        <v>29.2</v>
+        <v>26.40969107551489</v>
       </c>
       <c r="T120">
-        <v>59.3</v>
+        <v>58.70319502074691</v>
       </c>
       <c r="U120">
         <v>3.3</v>
@@ -17485,16 +17485,16 @@
         <v>96.39060000000001</v>
       </c>
       <c r="Q121">
-        <v>157503</v>
+        <v>89240.3541714548</v>
       </c>
       <c r="R121">
-        <v>0.67</v>
+        <v>0.7111304347826088</v>
       </c>
       <c r="S121">
-        <v>21.8</v>
+        <v>25.13916475972542</v>
       </c>
       <c r="T121">
-        <v>58.2</v>
+        <v>58.79819502074692</v>
       </c>
       <c r="U121">
         <v>3.6</v>
@@ -17643,16 +17643,16 @@
         <v>93.227</v>
       </c>
       <c r="Q122">
-        <v>18500</v>
+        <v>35668.44890829694</v>
       </c>
       <c r="R122">
-        <v>0.6</v>
+        <v>0.7241304347826086</v>
       </c>
       <c r="S122">
-        <v>18.4</v>
+        <v>25.46521739130436</v>
       </c>
       <c r="T122">
-        <v>57</v>
+        <v>58.64748073503263</v>
       </c>
       <c r="U122">
         <v>3.6</v>
@@ -17786,16 +17786,16 @@
         <v>84.3017</v>
       </c>
       <c r="Q123">
-        <v>19176</v>
+        <v>33991.93311882326</v>
       </c>
       <c r="R123">
-        <v>0.76</v>
+        <v>0.7641304347826088</v>
       </c>
       <c r="S123">
-        <v>22</v>
+        <v>23.62521739130436</v>
       </c>
       <c r="T123">
-        <v>57.3</v>
+        <v>58.96319502074691</v>
       </c>
       <c r="U123">
         <v>3.7</v>
@@ -17929,16 +17929,16 @@
         <v>95.0284</v>
       </c>
       <c r="Q124">
-        <v>32853</v>
+        <v>40680.51206619167</v>
       </c>
       <c r="R124">
-        <v>0.75</v>
+        <v>0.737446224256293</v>
       </c>
       <c r="S124">
-        <v>30.8</v>
+        <v>28.107585812357</v>
       </c>
       <c r="T124">
-        <v>58.5</v>
+        <v>59.22319502074691</v>
       </c>
       <c r="U124">
         <v>3.8</v>
@@ -18087,16 +18087,16 @@
         <v>89.38630000000001</v>
       </c>
       <c r="Q125">
-        <v>41156</v>
+        <v>49886.40680303379</v>
       </c>
       <c r="R125">
-        <v>0.6899999999999999</v>
+        <v>0.6706041189931351</v>
       </c>
       <c r="S125">
-        <v>28.6</v>
+        <v>25.147585812357</v>
       </c>
       <c r="T125">
-        <v>59.5</v>
+        <v>59.26819502074692</v>
       </c>
       <c r="U125">
         <v>3.5</v>
@@ -18230,16 +18230,16 @@
         <v>90.0872</v>
       </c>
       <c r="Q126">
-        <v>32716</v>
+        <v>39032.24890829695</v>
       </c>
       <c r="R126">
-        <v>0.76</v>
+        <v>0.7121830663615563</v>
       </c>
       <c r="S126">
-        <v>28.4</v>
+        <v>25.86969107551489</v>
       </c>
       <c r="T126">
-        <v>60.4</v>
+        <v>59.61319502074691</v>
       </c>
       <c r="U126">
         <v>3.3</v>
@@ -18373,16 +18373,16 @@
         <v>98.697</v>
       </c>
       <c r="Q127">
-        <v>31866</v>
+        <v>27926.61732934956</v>
       </c>
       <c r="R127">
-        <v>0.77</v>
+        <v>0.7469199084668195</v>
       </c>
       <c r="S127">
-        <v>26.7</v>
+        <v>25.98021739130437</v>
       </c>
       <c r="T127">
-        <v>60.5</v>
+        <v>59.62319502074691</v>
       </c>
       <c r="U127">
         <v>3.3</v>
@@ -18531,16 +18531,16 @@
         <v>85.9871</v>
       </c>
       <c r="Q128">
-        <v>37878</v>
+        <v>39554.30153987589</v>
       </c>
       <c r="R128">
-        <v>0.62</v>
+        <v>0.6669199084668194</v>
       </c>
       <c r="S128">
-        <v>24.8</v>
+        <v>25.24337528604121</v>
       </c>
       <c r="T128">
-        <v>60.2</v>
+        <v>59.40319502074691</v>
       </c>
       <c r="U128">
         <v>3.3</v>
@@ -18674,16 +18674,16 @@
         <v>88.21680000000001</v>
       </c>
       <c r="Q129">
-        <v>40856</v>
+        <v>49523.19627671799</v>
       </c>
       <c r="R129">
-        <v>0.68</v>
+        <v>0.6295514874141879</v>
       </c>
       <c r="S129">
-        <v>25.4</v>
+        <v>25.47863844393594</v>
       </c>
       <c r="T129">
-        <v>59.8</v>
+        <v>59.57319502074691</v>
       </c>
       <c r="U129">
         <v>3.2</v>
@@ -18817,16 +18817,16 @@
         <v>90.91930000000001</v>
       </c>
       <c r="Q130">
-        <v>44251</v>
+        <v>48363.66996092852</v>
       </c>
       <c r="R130">
-        <v>0.67</v>
+        <v>0.6500778032036616</v>
       </c>
       <c r="S130">
-        <v>25.8</v>
+        <v>24.61179633867278</v>
       </c>
       <c r="T130">
-        <v>59.3</v>
+        <v>58.79319502074691</v>
       </c>
       <c r="U130">
         <v>3.3</v>
@@ -18975,16 +18975,16 @@
         <v>93.24469999999999</v>
       </c>
       <c r="Q131">
-        <v>60027</v>
+        <v>61403.03838198115</v>
       </c>
       <c r="R131">
-        <v>0.6</v>
+        <v>0.5637620137299771</v>
       </c>
       <c r="S131">
-        <v>26.2</v>
+        <v>26.56442791762014</v>
       </c>
       <c r="T131">
-        <v>60.1</v>
+        <v>59.4081950207469</v>
       </c>
       <c r="U131">
         <v>3.2</v>
@@ -19118,16 +19118,16 @@
         <v>87.0121</v>
       </c>
       <c r="Q132">
-        <v>42229</v>
+        <v>42836.66996092853</v>
       </c>
       <c r="R132">
-        <v>0.62</v>
+        <v>0.6063935926773458</v>
       </c>
       <c r="S132">
-        <v>29.1</v>
+        <v>26.30969107551489</v>
       </c>
       <c r="T132">
-        <v>59.9</v>
+        <v>59.30319502074691</v>
       </c>
       <c r="U132">
         <v>3.3</v>
@@ -19261,16 +19261,16 @@
         <v>96.1536</v>
       </c>
       <c r="Q133">
-        <v>148086</v>
+        <v>79823.3541714548</v>
       </c>
       <c r="R133">
-        <v>0.65</v>
+        <v>0.6911304347826088</v>
       </c>
       <c r="S133">
-        <v>21.5</v>
+        <v>24.83916475972542</v>
       </c>
       <c r="T133">
-        <v>58.7</v>
+        <v>59.29819502074692</v>
       </c>
       <c r="U133">
         <v>3.2</v>
@@ -19419,16 +19419,16 @@
         <v>84.4097</v>
       </c>
       <c r="Q134">
-        <v>29411</v>
+        <v>46579.44890829694</v>
       </c>
       <c r="R134">
-        <v>0.5600000000000001</v>
+        <v>0.6841304347826087</v>
       </c>
       <c r="S134">
-        <v>18.8</v>
+        <v>25.86521739130436</v>
       </c>
       <c r="T134">
-        <v>57.7</v>
+        <v>59.34748073503263</v>
       </c>
       <c r="U134">
         <v>3.3</v>
@@ -19562,16 +19562,16 @@
         <v>86.16679999999999</v>
       </c>
       <c r="Q135">
-        <v>32092</v>
+        <v>46907.93311882326</v>
       </c>
       <c r="R135">
-        <v>0.72</v>
+        <v>0.7241304347826087</v>
       </c>
       <c r="S135">
-        <v>25.5</v>
+        <v>27.12521739130436</v>
       </c>
       <c r="T135">
-        <v>57.7</v>
+        <v>59.36319502074691</v>
       </c>
       <c r="U135">
         <v>3.4</v>
@@ -19705,16 +19705,16 @@
         <v>87.95869999999999</v>
       </c>
       <c r="Q136">
-        <v>38167</v>
+        <v>45994.51206619167</v>
       </c>
       <c r="R136">
-        <v>0.6899999999999999</v>
+        <v>0.677446224256293</v>
       </c>
       <c r="S136">
-        <v>33.3</v>
+        <v>30.60758581235699</v>
       </c>
       <c r="T136">
-        <v>58.9</v>
+        <v>59.62319502074691</v>
       </c>
       <c r="U136">
         <v>3.3</v>
@@ -19863,16 +19863,16 @@
         <v>84.7903</v>
       </c>
       <c r="Q137">
-        <v>42175</v>
+        <v>50905.40680303379</v>
       </c>
       <c r="R137">
-        <v>0.71</v>
+        <v>0.6906041189931351</v>
       </c>
       <c r="S137">
-        <v>30.8</v>
+        <v>27.347585812357</v>
       </c>
       <c r="T137">
-        <v>60</v>
+        <v>59.76819502074692</v>
       </c>
       <c r="U137">
         <v>3.3</v>
@@ -20006,16 +20006,16 @@
         <v>86.9092</v>
       </c>
       <c r="Q138">
-        <v>46086</v>
+        <v>52402.24890829695</v>
       </c>
       <c r="R138">
-        <v>0.78</v>
+        <v>0.7321830663615563</v>
       </c>
       <c r="S138">
-        <v>30.2</v>
+        <v>27.66969107551489</v>
       </c>
       <c r="T138">
-        <v>60.8</v>
+        <v>60.01319502074691</v>
       </c>
       <c r="U138">
         <v>3.2</v>
@@ -20149,16 +20149,16 @@
         <v>84.2557</v>
       </c>
       <c r="Q139">
-        <v>50534</v>
+        <v>46594.61732934956</v>
       </c>
       <c r="R139">
-        <v>0.73</v>
+        <v>0.7069199084668195</v>
       </c>
       <c r="S139">
-        <v>29.8</v>
+        <v>29.08021739130437</v>
       </c>
       <c r="T139">
-        <v>60.7</v>
+        <v>59.82319502074691</v>
       </c>
       <c r="U139">
         <v>3.2</v>
@@ -20307,16 +20307,16 @@
         <v>88.7317</v>
       </c>
       <c r="Q140">
-        <v>43682</v>
+        <v>45358.30153987589</v>
       </c>
       <c r="R140">
-        <v>0.7</v>
+        <v>0.7469199084668193</v>
       </c>
       <c r="S140">
-        <v>30.9</v>
+        <v>31.3433752860412</v>
       </c>
       <c r="T140">
-        <v>60.6</v>
+        <v>59.80319502074691</v>
       </c>
       <c r="U140">
         <v>3.1</v>
@@ -20450,16 +20450,16 @@
         <v>83.4817</v>
       </c>
       <c r="Q141">
-        <v>39030</v>
+        <v>47697.19627671799</v>
       </c>
       <c r="R141">
-        <v>0.78</v>
+        <v>0.7295514874141878</v>
       </c>
       <c r="S141">
-        <v>30.5</v>
+        <v>30.57863844393594</v>
       </c>
       <c r="T141">
-        <v>59.9</v>
+        <v>59.67319502074691</v>
       </c>
       <c r="U141">
         <v>3.1</v>
@@ -20593,16 +20593,16 @@
         <v>87.9379</v>
       </c>
       <c r="Q142">
-        <v>52216</v>
+        <v>56328.66996092852</v>
       </c>
       <c r="R142">
-        <v>0.7</v>
+        <v>0.6800778032036615</v>
       </c>
       <c r="S142">
-        <v>32</v>
+        <v>30.81179633867278</v>
       </c>
       <c r="T142">
-        <v>60.2</v>
+        <v>59.69319502074691</v>
       </c>
       <c r="U142">
         <v>3.2</v>
@@ -20751,16 +20751,16 @@
         <v>87.744</v>
       </c>
       <c r="Q143">
-        <v>36908</v>
+        <v>38284.03838198115</v>
       </c>
       <c r="R143">
-        <v>0.79</v>
+        <v>0.7537620137299772</v>
       </c>
       <c r="S143">
-        <v>29.1</v>
+        <v>29.46442791762015</v>
       </c>
       <c r="T143">
-        <v>60.3</v>
+        <v>59.6081950207469</v>
       </c>
       <c r="U143">
         <v>3.1</v>
@@ -20894,16 +20894,16 @@
         <v>89.9079</v>
       </c>
       <c r="Q144">
-        <v>37845</v>
+        <v>38452.66996092853</v>
       </c>
       <c r="R144">
-        <v>0.75</v>
+        <v>0.7363935926773458</v>
       </c>
       <c r="S144">
-        <v>34.7</v>
+        <v>31.90969107551489</v>
       </c>
       <c r="T144">
-        <v>59.9</v>
+        <v>59.30319502074691</v>
       </c>
       <c r="U144">
         <v>3.2</v>
@@ -21037,16 +21037,16 @@
         <v>91.6044</v>
       </c>
       <c r="Q145">
-        <v>138738</v>
+        <v>70475.3541714548</v>
       </c>
       <c r="R145">
-        <v>0.59</v>
+        <v>0.6311304347826088</v>
       </c>
       <c r="S145">
-        <v>24.5</v>
+        <v>27.83916475972542</v>
       </c>
       <c r="T145">
-        <v>58.6</v>
+        <v>59.19819502074692</v>
       </c>
       <c r="U145">
         <v>3.1</v>
@@ -21195,16 +21195,16 @@
         <v>88.1512</v>
       </c>
       <c r="Q146">
-        <v>23952</v>
+        <v>41120.44890829694</v>
       </c>
       <c r="R146">
-        <v>0.55</v>
+        <v>0.6741304347826087</v>
       </c>
       <c r="S146">
-        <v>20.6</v>
+        <v>27.66521739130436</v>
       </c>
       <c r="T146">
-        <v>57.7</v>
+        <v>59.34748073503263</v>
       </c>
       <c r="U146">
         <v>3.2</v>
@@ -21329,13 +21329,13 @@
         <v>72</v>
       </c>
       <c r="R147">
-        <v>0.64</v>
+        <v>0.6441304347826088</v>
       </c>
       <c r="S147">
-        <v>29.9</v>
+        <v>31.52521739130436</v>
       </c>
       <c r="T147">
-        <v>57.5</v>
+        <v>59.16319502074691</v>
       </c>
       <c r="U147">
         <v>3.2</v>
